--- a/va_facility_data_2025-02-20/Key West VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Key%20West%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Key West VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Key%20West%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd6a9937de79842c7b8f96e1eaa90f4d1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb9fcfecf727c449dbf3b15cd98308c25"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R532d2d4dfc8741e4b4616aa78f3082c7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R41df5a2ed7ab49fd846166b5150566bc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7752a7bb19e44ddd90a1d469c5405cc5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R703d62168dbf4b838ac43927f62d5976"/>
   </x:sheets>
 </x:workbook>
 </file>
